--- a/Illinois.xlsx
+++ b/Illinois.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="11910"/>
   </bookViews>
   <sheets>
-    <sheet name="shrinking-winter-dates-of-the-f" sheetId="1" r:id="rId1"/>
+    <sheet name="Illinois" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1931,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
